--- a/result/gr25_09_simulated/details.xlsx
+++ b/result/gr25_09_simulated/details.xlsx
@@ -570,73 +570,73 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2291297912597656</v>
+        <v>0.1965575218200684</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>79.6577927426606</v>
+        <v>80.11389566444632</v>
       </c>
       <c r="F2" t="n">
-        <v>0.003695768495471548</v>
+        <v>0.0034064004093979</v>
       </c>
       <c r="G2" t="n">
-        <v>0.002740573377358722</v>
+        <v>0.002939700397567074</v>
       </c>
       <c r="H2" t="n">
-        <v>0.002448119276127505</v>
+        <v>0.002566815087693311</v>
       </c>
       <c r="I2" t="n">
-        <v>0.002232548693916673</v>
+        <v>0.002326657877359087</v>
       </c>
       <c r="J2" t="n">
-        <v>0.002209945170973787</v>
+        <v>0.002286228920095569</v>
       </c>
       <c r="K2" t="n">
-        <v>0.002188653919400496</v>
+        <v>0.002029458474717457</v>
       </c>
       <c r="L2" t="n">
-        <v>0.002149479144404589</v>
+        <v>0.002029458474717457</v>
       </c>
       <c r="M2" t="n">
-        <v>0.002029370452845093</v>
+        <v>0.002029458474717457</v>
       </c>
       <c r="N2" t="n">
-        <v>0.002009586683171791</v>
+        <v>0.001876908969343045</v>
       </c>
       <c r="O2" t="n">
-        <v>0.001925326057035848</v>
+        <v>0.00184622989131333</v>
       </c>
       <c r="P2" t="n">
-        <v>0.001899278268775254</v>
+        <v>0.00184622989131333</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.001852649368155605</v>
+        <v>0.001773619890375423</v>
       </c>
       <c r="R2" t="n">
-        <v>0.001789283827228322</v>
+        <v>0.001773619890375423</v>
       </c>
       <c r="S2" t="n">
-        <v>0.001688792896335786</v>
+        <v>0.00169118143618738</v>
       </c>
       <c r="T2" t="n">
-        <v>0.001688792896335786</v>
+        <v>0.001666108947535326</v>
       </c>
       <c r="U2" t="n">
-        <v>0.001595470075465884</v>
+        <v>0.001640733283284011</v>
       </c>
       <c r="V2" t="n">
-        <v>0.001595470075465884</v>
+        <v>0.001631100837795693</v>
       </c>
       <c r="W2" t="n">
-        <v>0.001559678035252987</v>
+        <v>0.001588951921210529</v>
       </c>
       <c r="X2" t="n">
-        <v>0.001559678035252987</v>
+        <v>0.001566405003710744</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.00155278348426239</v>
+        <v>0.001561674379423904</v>
       </c>
     </row>
     <row r="3">
@@ -649,73 +649,73 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2655971050262451</v>
+        <v>0.2621278762817383</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>98.11541088100057</v>
+        <v>80.98248494083418</v>
       </c>
       <c r="F3" t="n">
-        <v>0.00367029059049389</v>
+        <v>0.003543165945709022</v>
       </c>
       <c r="G3" t="n">
-        <v>0.002798321200343725</v>
+        <v>0.002938737812021651</v>
       </c>
       <c r="H3" t="n">
-        <v>0.002406389684431976</v>
+        <v>0.002585375430321149</v>
       </c>
       <c r="I3" t="n">
-        <v>0.002257525591492871</v>
+        <v>0.00246847138451027</v>
       </c>
       <c r="J3" t="n">
-        <v>0.002257525591492871</v>
+        <v>0.002170182152740327</v>
       </c>
       <c r="K3" t="n">
-        <v>0.002194325667137092</v>
+        <v>0.002058573563939306</v>
       </c>
       <c r="L3" t="n">
-        <v>0.00215082501887174</v>
+        <v>0.001942078234194632</v>
       </c>
       <c r="M3" t="n">
-        <v>0.002129160667620035</v>
+        <v>0.001942078234194632</v>
       </c>
       <c r="N3" t="n">
-        <v>0.002032032209425411</v>
+        <v>0.001877640692208635</v>
       </c>
       <c r="O3" t="n">
-        <v>0.002032032209425411</v>
+        <v>0.001756609446336681</v>
       </c>
       <c r="P3" t="n">
-        <v>0.00199966289770547</v>
+        <v>0.001715321210203148</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.001987267695441974</v>
+        <v>0.001677190155027857</v>
       </c>
       <c r="R3" t="n">
-        <v>0.001951990666355867</v>
+        <v>0.001677190155027857</v>
       </c>
       <c r="S3" t="n">
-        <v>0.001951990666355867</v>
+        <v>0.00163185319085867</v>
       </c>
       <c r="T3" t="n">
-        <v>0.001949027560561281</v>
+        <v>0.00160371113931548</v>
       </c>
       <c r="U3" t="n">
-        <v>0.001912581108791434</v>
+        <v>0.00160371113931548</v>
       </c>
       <c r="V3" t="n">
-        <v>0.001912581108791434</v>
+        <v>0.001595536182378044</v>
       </c>
       <c r="W3" t="n">
-        <v>0.001912581108791434</v>
+        <v>0.001595536182378044</v>
       </c>
       <c r="X3" t="n">
-        <v>0.001912581108791434</v>
+        <v>0.00158716833143148</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.001912581108791434</v>
+        <v>0.001578605944265773</v>
       </c>
     </row>
     <row r="4">
@@ -728,73 +728,73 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>0.283397912979126</v>
+        <v>0.2090551853179932</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>85.8237475336864</v>
+        <v>83.72578526828329</v>
       </c>
       <c r="F4" t="n">
-        <v>0.003641811367244095</v>
+        <v>0.003690111078309416</v>
       </c>
       <c r="G4" t="n">
-        <v>0.002745312697391243</v>
+        <v>0.002855100436841773</v>
       </c>
       <c r="H4" t="n">
-        <v>0.002448088915288073</v>
+        <v>0.00224717225884831</v>
       </c>
       <c r="I4" t="n">
-        <v>0.002255785291258396</v>
+        <v>0.002085178928853983</v>
       </c>
       <c r="J4" t="n">
-        <v>0.002254744289298242</v>
+        <v>0.002085178928853983</v>
       </c>
       <c r="K4" t="n">
-        <v>0.002124562302125486</v>
+        <v>0.002071198806504619</v>
       </c>
       <c r="L4" t="n">
-        <v>0.002015726300784581</v>
+        <v>0.001988741344736346</v>
       </c>
       <c r="M4" t="n">
-        <v>0.001985402576629942</v>
+        <v>0.00198174053723767</v>
       </c>
       <c r="N4" t="n">
-        <v>0.001936830650881416</v>
+        <v>0.001797604959738166</v>
       </c>
       <c r="O4" t="n">
-        <v>0.001853093275012884</v>
+        <v>0.001797604959738166</v>
       </c>
       <c r="P4" t="n">
-        <v>0.001853093275012884</v>
+        <v>0.001760194688294998</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.001829997471629175</v>
+        <v>0.001760194688294998</v>
       </c>
       <c r="R4" t="n">
-        <v>0.001829997471629175</v>
+        <v>0.001751304172548221</v>
       </c>
       <c r="S4" t="n">
-        <v>0.001781629637712826</v>
+        <v>0.00172841520379968</v>
       </c>
       <c r="T4" t="n">
-        <v>0.001764429473021001</v>
+        <v>0.001692372589404875</v>
       </c>
       <c r="U4" t="n">
-        <v>0.001730399593105505</v>
+        <v>0.001674948440065305</v>
       </c>
       <c r="V4" t="n">
-        <v>0.001702977267133733</v>
+        <v>0.001666155314114643</v>
       </c>
       <c r="W4" t="n">
-        <v>0.001697317253016563</v>
+        <v>0.001660767118110849</v>
       </c>
       <c r="X4" t="n">
-        <v>0.001687389774033044</v>
+        <v>0.001643487343924676</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.001672977534769715</v>
+        <v>0.001632081584177062</v>
       </c>
     </row>
     <row r="5">
@@ -807,73 +807,73 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2796282768249512</v>
+        <v>0.2100899219512939</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>81.57949833031853</v>
+        <v>80.19955851590021</v>
       </c>
       <c r="F5" t="n">
-        <v>0.003736067690736562</v>
+        <v>0.003615637000805763</v>
       </c>
       <c r="G5" t="n">
-        <v>0.002783602619232053</v>
+        <v>0.002853093296369826</v>
       </c>
       <c r="H5" t="n">
-        <v>0.002580060942792153</v>
+        <v>0.002521850818783149</v>
       </c>
       <c r="I5" t="n">
-        <v>0.002287540616711424</v>
+        <v>0.002269587982458932</v>
       </c>
       <c r="J5" t="n">
-        <v>0.002232840164136055</v>
+        <v>0.002216245477540784</v>
       </c>
       <c r="K5" t="n">
-        <v>0.001952062826782465</v>
+        <v>0.002099596092365649</v>
       </c>
       <c r="L5" t="n">
-        <v>0.001815222394942001</v>
+        <v>0.001922077286967498</v>
       </c>
       <c r="M5" t="n">
-        <v>0.001815222394942001</v>
+        <v>0.001854643122036786</v>
       </c>
       <c r="N5" t="n">
-        <v>0.00178671669652156</v>
+        <v>0.001854643122036786</v>
       </c>
       <c r="O5" t="n">
-        <v>0.00178671669652156</v>
+        <v>0.001835043641151794</v>
       </c>
       <c r="P5" t="n">
-        <v>0.00178671669652156</v>
+        <v>0.001795015397663334</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.00178671669652156</v>
+        <v>0.001780761375098593</v>
       </c>
       <c r="R5" t="n">
-        <v>0.00178671669652156</v>
+        <v>0.00171644628158132</v>
       </c>
       <c r="S5" t="n">
-        <v>0.001700483261458011</v>
+        <v>0.00171644628158132</v>
       </c>
       <c r="T5" t="n">
-        <v>0.001692762141184879</v>
+        <v>0.001651285661575623</v>
       </c>
       <c r="U5" t="n">
-        <v>0.001678893089265613</v>
+        <v>0.001639365039344566</v>
       </c>
       <c r="V5" t="n">
-        <v>0.001627966973860575</v>
+        <v>0.001601874947398181</v>
       </c>
       <c r="W5" t="n">
-        <v>0.00161200386931967</v>
+        <v>0.001601874947398181</v>
       </c>
       <c r="X5" t="n">
-        <v>0.001602629176005282</v>
+        <v>0.00156334422058285</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.001590243632169952</v>
+        <v>0.00156334422058285</v>
       </c>
     </row>
     <row r="6">
@@ -886,73 +886,73 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2231876850128174</v>
+        <v>0.2929625511169434</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>82.62612698321209</v>
+        <v>78.12934800561379</v>
       </c>
       <c r="F6" t="n">
-        <v>0.003759083144121613</v>
+        <v>0.003465229645800299</v>
       </c>
       <c r="G6" t="n">
-        <v>0.002989891804058589</v>
+        <v>0.002688582320078794</v>
       </c>
       <c r="H6" t="n">
-        <v>0.00252277065429402</v>
+        <v>0.002526911795793723</v>
       </c>
       <c r="I6" t="n">
-        <v>0.002289156814618678</v>
+        <v>0.002301782921082125</v>
       </c>
       <c r="J6" t="n">
-        <v>0.002245608755423263</v>
+        <v>0.002055379795845787</v>
       </c>
       <c r="K6" t="n">
-        <v>0.002201577376157335</v>
+        <v>0.002035526468536691</v>
       </c>
       <c r="L6" t="n">
-        <v>0.00203810204283593</v>
+        <v>0.001913848647427106</v>
       </c>
       <c r="M6" t="n">
-        <v>0.00188553660490876</v>
+        <v>0.001866845221754904</v>
       </c>
       <c r="N6" t="n">
-        <v>0.001820968195693248</v>
+        <v>0.001833916652043055</v>
       </c>
       <c r="O6" t="n">
-        <v>0.001798813895767917</v>
+        <v>0.001787789781182118</v>
       </c>
       <c r="P6" t="n">
-        <v>0.001798813895767917</v>
+        <v>0.001700272239661316</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.001768844471018638</v>
+        <v>0.001669708583043434</v>
       </c>
       <c r="R6" t="n">
-        <v>0.001759934482305214</v>
+        <v>0.001639516460510958</v>
       </c>
       <c r="S6" t="n">
-        <v>0.001759934482305214</v>
+        <v>0.001619000711253376</v>
       </c>
       <c r="T6" t="n">
-        <v>0.001704141326170936</v>
+        <v>0.00155587496782635</v>
       </c>
       <c r="U6" t="n">
-        <v>0.001638674940707019</v>
+        <v>0.00155587496782635</v>
       </c>
       <c r="V6" t="n">
-        <v>0.001638674940707019</v>
+        <v>0.00155587496782635</v>
       </c>
       <c r="W6" t="n">
-        <v>0.001638674940707019</v>
+        <v>0.001544130462705822</v>
       </c>
       <c r="X6" t="n">
-        <v>0.001619300956505528</v>
+        <v>0.00152873006226239</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.001610645750160079</v>
+        <v>0.001522989239875512</v>
       </c>
     </row>
     <row r="7">
@@ -965,73 +965,73 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2343568801879883</v>
+        <v>0.2398521900177002</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>81.45746500802306</v>
+        <v>79.17031733412296</v>
       </c>
       <c r="F7" t="n">
-        <v>0.003744841701569937</v>
+        <v>0.003472056448682002</v>
       </c>
       <c r="G7" t="n">
-        <v>0.002674769809068005</v>
+        <v>0.002883603473870912</v>
       </c>
       <c r="H7" t="n">
-        <v>0.002582314510479571</v>
+        <v>0.002572335527272681</v>
       </c>
       <c r="I7" t="n">
-        <v>0.002220240411915137</v>
+        <v>0.002255143558624631</v>
       </c>
       <c r="J7" t="n">
-        <v>0.002220240411915137</v>
+        <v>0.002144623703995756</v>
       </c>
       <c r="K7" t="n">
-        <v>0.002055146018501935</v>
+        <v>0.00202354122883451</v>
       </c>
       <c r="L7" t="n">
-        <v>0.002024710507218885</v>
+        <v>0.001988364222944019</v>
       </c>
       <c r="M7" t="n">
-        <v>0.002008893395504004</v>
+        <v>0.001906067559509758</v>
       </c>
       <c r="N7" t="n">
-        <v>0.002008893395504004</v>
+        <v>0.001804498751647323</v>
       </c>
       <c r="O7" t="n">
-        <v>0.001873550326102678</v>
+        <v>0.001803689794381137</v>
       </c>
       <c r="P7" t="n">
-        <v>0.001873550326102678</v>
+        <v>0.001639768340158441</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.001803555891961083</v>
+        <v>0.001639768340158441</v>
       </c>
       <c r="R7" t="n">
-        <v>0.001803555891961083</v>
+        <v>0.001639768340158441</v>
       </c>
       <c r="S7" t="n">
-        <v>0.001738354125932461</v>
+        <v>0.001594879727396445</v>
       </c>
       <c r="T7" t="n">
-        <v>0.001738354125932461</v>
+        <v>0.001594879727396445</v>
       </c>
       <c r="U7" t="n">
-        <v>0.001738354125932461</v>
+        <v>0.001594879727396445</v>
       </c>
       <c r="V7" t="n">
-        <v>0.001695379490251368</v>
+        <v>0.001579539492382363</v>
       </c>
       <c r="W7" t="n">
-        <v>0.001654192095951902</v>
+        <v>0.001579539492382363</v>
       </c>
       <c r="X7" t="n">
-        <v>0.001615633595271705</v>
+        <v>0.001563253973213223</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.00158786481497121</v>
+        <v>0.001543281039651519</v>
       </c>
     </row>
     <row r="8">
@@ -1044,73 +1044,73 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2499721050262451</v>
+        <v>0.2140746116638184</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>81.34669946300346</v>
+        <v>78.07068384169361</v>
       </c>
       <c r="F8" t="n">
         <v>0.003759083144121613</v>
       </c>
       <c r="G8" t="n">
-        <v>0.002979836587624359</v>
+        <v>0.002932206378861229</v>
       </c>
       <c r="H8" t="n">
-        <v>0.002330024267983631</v>
+        <v>0.002627136054231766</v>
       </c>
       <c r="I8" t="n">
-        <v>0.002225039090595959</v>
+        <v>0.002325355616545497</v>
       </c>
       <c r="J8" t="n">
-        <v>0.002162871510655734</v>
+        <v>0.00215020524883308</v>
       </c>
       <c r="K8" t="n">
-        <v>0.002162871510655734</v>
+        <v>0.00215020524883308</v>
       </c>
       <c r="L8" t="n">
-        <v>0.002162871510655734</v>
+        <v>0.00215020524883308</v>
       </c>
       <c r="M8" t="n">
-        <v>0.001882292570946454</v>
+        <v>0.001959133325351119</v>
       </c>
       <c r="N8" t="n">
-        <v>0.001815292754649862</v>
+        <v>0.001959133325351119</v>
       </c>
       <c r="O8" t="n">
-        <v>0.001815292754649862</v>
+        <v>0.001695004734906318</v>
       </c>
       <c r="P8" t="n">
-        <v>0.001815292754649862</v>
+        <v>0.001695004734906318</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.001815292754649862</v>
+        <v>0.001695004734906318</v>
       </c>
       <c r="R8" t="n">
-        <v>0.00176267843841613</v>
+        <v>0.001695004734906318</v>
       </c>
       <c r="S8" t="n">
-        <v>0.001730029628263642</v>
+        <v>0.001640810079011272</v>
       </c>
       <c r="T8" t="n">
-        <v>0.001722582166548321</v>
+        <v>0.001614952861858144</v>
       </c>
       <c r="U8" t="n">
-        <v>0.001682182056219812</v>
+        <v>0.00158010873233204</v>
       </c>
       <c r="V8" t="n">
-        <v>0.001633050801192723</v>
+        <v>0.001576051803209413</v>
       </c>
       <c r="W8" t="n">
-        <v>0.001609504051873629</v>
+        <v>0.001553221364669915</v>
       </c>
       <c r="X8" t="n">
-        <v>0.001588469121705886</v>
+        <v>0.001529121290141527</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.001585705642553673</v>
+        <v>0.001521845688921902</v>
       </c>
     </row>
     <row r="9">
@@ -1123,73 +1123,73 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2185177803039551</v>
+        <v>0.21875</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>78.85069322611889</v>
+        <v>78.18120103215006</v>
       </c>
       <c r="F9" t="n">
-        <v>0.003500984000123861</v>
+        <v>0.003744740124062058</v>
       </c>
       <c r="G9" t="n">
-        <v>0.002691085657012084</v>
+        <v>0.002840132546236567</v>
       </c>
       <c r="H9" t="n">
-        <v>0.002300923245710076</v>
+        <v>0.002204310088156319</v>
       </c>
       <c r="I9" t="n">
-        <v>0.002300923245710076</v>
+        <v>0.002204310088156319</v>
       </c>
       <c r="J9" t="n">
-        <v>0.002279604166547341</v>
+        <v>0.002153565057913645</v>
       </c>
       <c r="K9" t="n">
-        <v>0.002258021895042836</v>
+        <v>0.002100089748053694</v>
       </c>
       <c r="L9" t="n">
-        <v>0.002090182532951036</v>
+        <v>0.001952877674862464</v>
       </c>
       <c r="M9" t="n">
-        <v>0.00184921385712231</v>
+        <v>0.001881658004841957</v>
       </c>
       <c r="N9" t="n">
-        <v>0.00184921385712231</v>
+        <v>0.001822866030628819</v>
       </c>
       <c r="O9" t="n">
-        <v>0.00184921385712231</v>
+        <v>0.001739706247139089</v>
       </c>
       <c r="P9" t="n">
-        <v>0.001815406921996469</v>
+        <v>0.001711576716126026</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.001787981624660084</v>
+        <v>0.001711576716126026</v>
       </c>
       <c r="R9" t="n">
-        <v>0.00177974042668523</v>
+        <v>0.001614114164554356</v>
       </c>
       <c r="S9" t="n">
-        <v>0.001765419912946817</v>
+        <v>0.001571998599521291</v>
       </c>
       <c r="T9" t="n">
-        <v>0.001742909210053065</v>
+        <v>0.001571998599521291</v>
       </c>
       <c r="U9" t="n">
-        <v>0.001584117830291318</v>
+        <v>0.001571998599521291</v>
       </c>
       <c r="V9" t="n">
-        <v>0.001563876661010914</v>
+        <v>0.001566797505886064</v>
       </c>
       <c r="W9" t="n">
-        <v>0.001563876661010914</v>
+        <v>0.001544111956601399</v>
       </c>
       <c r="X9" t="n">
-        <v>0.001549882438705583</v>
+        <v>0.001543437248945206</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.001537050550216742</v>
+        <v>0.001524000020119884</v>
       </c>
     </row>
     <row r="10">
@@ -1202,73 +1202,73 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2187535762786865</v>
+        <v>0.2479193210601807</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>79.53134970226347</v>
+        <v>77.48451050783478</v>
       </c>
       <c r="F10" t="n">
-        <v>0.003416002273421241</v>
+        <v>0.003632288010573821</v>
       </c>
       <c r="G10" t="n">
-        <v>0.002804071481271476</v>
+        <v>0.002961008011339377</v>
       </c>
       <c r="H10" t="n">
-        <v>0.002454965227343652</v>
+        <v>0.002350267019669826</v>
       </c>
       <c r="I10" t="n">
-        <v>0.002331626731301562</v>
+        <v>0.002236595090739905</v>
       </c>
       <c r="J10" t="n">
-        <v>0.002073493911379166</v>
+        <v>0.002236595090739905</v>
       </c>
       <c r="K10" t="n">
-        <v>0.002014689906179279</v>
+        <v>0.002099354709725124</v>
       </c>
       <c r="L10" t="n">
-        <v>0.001811103084673676</v>
+        <v>0.002074970565844901</v>
       </c>
       <c r="M10" t="n">
-        <v>0.001811103084673676</v>
+        <v>0.001956009252144088</v>
       </c>
       <c r="N10" t="n">
-        <v>0.001762177995139589</v>
+        <v>0.00193864126303156</v>
       </c>
       <c r="O10" t="n">
-        <v>0.001738695135710643</v>
+        <v>0.001866146243428765</v>
       </c>
       <c r="P10" t="n">
-        <v>0.001738695135710643</v>
+        <v>0.001866014576791702</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.001708267959689217</v>
+        <v>0.001753418581980337</v>
       </c>
       <c r="R10" t="n">
-        <v>0.001633088014905244</v>
+        <v>0.001753418581980337</v>
       </c>
       <c r="S10" t="n">
-        <v>0.001633088014905244</v>
+        <v>0.001664772966093212</v>
       </c>
       <c r="T10" t="n">
-        <v>0.001602161134336459</v>
+        <v>0.001664772966093212</v>
       </c>
       <c r="U10" t="n">
-        <v>0.001602161134336459</v>
+        <v>0.001644558724383529</v>
       </c>
       <c r="V10" t="n">
-        <v>0.00158990369659582</v>
+        <v>0.001596862942359768</v>
       </c>
       <c r="W10" t="n">
-        <v>0.001585868406410868</v>
+        <v>0.001544399564283477</v>
       </c>
       <c r="X10" t="n">
-        <v>0.001561318838512962</v>
+        <v>0.001512533860548866</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.001550318707646461</v>
+        <v>0.001510419308144927</v>
       </c>
     </row>
     <row r="11">
@@ -1281,73 +1281,73 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2030847072601318</v>
+        <v>0.2136814594268799</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>85.74094990617414</v>
+        <v>80.77882561079605</v>
       </c>
       <c r="F11" t="n">
-        <v>0.003759083144121613</v>
+        <v>0.003731177597385016</v>
       </c>
       <c r="G11" t="n">
-        <v>0.002775017007853273</v>
+        <v>0.002816787661299438</v>
       </c>
       <c r="H11" t="n">
-        <v>0.002413491264336304</v>
+        <v>0.002579384315105313</v>
       </c>
       <c r="I11" t="n">
-        <v>0.002413491264336304</v>
+        <v>0.002227024119271595</v>
       </c>
       <c r="J11" t="n">
-        <v>0.002304253557913983</v>
+        <v>0.002227024119271595</v>
       </c>
       <c r="K11" t="n">
-        <v>0.002171040957622551</v>
+        <v>0.002112213722177354</v>
       </c>
       <c r="L11" t="n">
-        <v>0.002098786690776303</v>
+        <v>0.001910928604241963</v>
       </c>
       <c r="M11" t="n">
-        <v>0.001933508816111735</v>
+        <v>0.001910928604241963</v>
       </c>
       <c r="N11" t="n">
-        <v>0.001933508816111735</v>
+        <v>0.001910928604241963</v>
       </c>
       <c r="O11" t="n">
-        <v>0.001930223702531743</v>
+        <v>0.001744282461701575</v>
       </c>
       <c r="P11" t="n">
-        <v>0.001906182500495642</v>
+        <v>0.001688253714728241</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.001833457669696467</v>
+        <v>0.00166318533139617</v>
       </c>
       <c r="R11" t="n">
-        <v>0.001833457669696467</v>
+        <v>0.00166318533139617</v>
       </c>
       <c r="S11" t="n">
-        <v>0.0018061872569274</v>
+        <v>0.001620413131806298</v>
       </c>
       <c r="T11" t="n">
-        <v>0.001773015174504892</v>
+        <v>0.001620413131806298</v>
       </c>
       <c r="U11" t="n">
-        <v>0.001752826208697347</v>
+        <v>0.001620413131806298</v>
       </c>
       <c r="V11" t="n">
-        <v>0.001705832282782262</v>
+        <v>0.00160969673835961</v>
       </c>
       <c r="W11" t="n">
-        <v>0.001705832282782262</v>
+        <v>0.001599020981138466</v>
       </c>
       <c r="X11" t="n">
-        <v>0.001705832282782262</v>
+        <v>0.001599020981138466</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.00167136354592932</v>
+        <v>0.001574635976818636</v>
       </c>
     </row>
   </sheetData>

--- a/result/gr25_09_simulated/details.xlsx
+++ b/result/gr25_09_simulated/details.xlsx
@@ -570,73 +570,73 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1965575218200684</v>
+        <v>0.4360334873199463</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>80.11389566444632</v>
+        <v>62.02870150422677</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0034064004093979</v>
+        <v>0.002200436538785911</v>
       </c>
       <c r="G2" t="n">
-        <v>0.002939700397567074</v>
+        <v>0.001863035246001035</v>
       </c>
       <c r="H2" t="n">
-        <v>0.002566815087693311</v>
+        <v>0.001847652463935592</v>
       </c>
       <c r="I2" t="n">
-        <v>0.002326657877359087</v>
+        <v>0.001660933182300399</v>
       </c>
       <c r="J2" t="n">
-        <v>0.002286228920095569</v>
+        <v>0.001660933182300399</v>
       </c>
       <c r="K2" t="n">
-        <v>0.002029458474717457</v>
+        <v>0.001566895311480357</v>
       </c>
       <c r="L2" t="n">
-        <v>0.002029458474717457</v>
+        <v>0.001462627750947911</v>
       </c>
       <c r="M2" t="n">
-        <v>0.002029458474717457</v>
+        <v>0.001462627750947911</v>
       </c>
       <c r="N2" t="n">
-        <v>0.001876908969343045</v>
+        <v>0.001462627750947911</v>
       </c>
       <c r="O2" t="n">
-        <v>0.00184622989131333</v>
+        <v>0.00141115928044901</v>
       </c>
       <c r="P2" t="n">
-        <v>0.00184622989131333</v>
+        <v>0.00141115928044901</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.001773619890375423</v>
+        <v>0.00141115928044901</v>
       </c>
       <c r="R2" t="n">
-        <v>0.001773619890375423</v>
+        <v>0.00141115928044901</v>
       </c>
       <c r="S2" t="n">
-        <v>0.00169118143618738</v>
+        <v>0.00137864408452327</v>
       </c>
       <c r="T2" t="n">
-        <v>0.001666108947535326</v>
+        <v>0.001327689516936438</v>
       </c>
       <c r="U2" t="n">
-        <v>0.001640733283284011</v>
+        <v>0.001304081051696565</v>
       </c>
       <c r="V2" t="n">
-        <v>0.001631100837795693</v>
+        <v>0.001239204944306595</v>
       </c>
       <c r="W2" t="n">
-        <v>0.001588951921210529</v>
+        <v>0.001239204944306595</v>
       </c>
       <c r="X2" t="n">
-        <v>0.001566405003710744</v>
+        <v>0.001209136481563874</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.001561674379423904</v>
+        <v>0.001209136481563874</v>
       </c>
     </row>
     <row r="3">
@@ -649,73 +649,73 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2621278762817383</v>
+        <v>0.5779569149017334</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>80.98248494083418</v>
+        <v>67.41487830349433</v>
       </c>
       <c r="F3" t="n">
-        <v>0.003543165945709022</v>
+        <v>0.002200436538785911</v>
       </c>
       <c r="G3" t="n">
-        <v>0.002938737812021651</v>
+        <v>0.001710634994383353</v>
       </c>
       <c r="H3" t="n">
-        <v>0.002585375430321149</v>
+        <v>0.001672910308660677</v>
       </c>
       <c r="I3" t="n">
-        <v>0.00246847138451027</v>
+        <v>0.001672910308660677</v>
       </c>
       <c r="J3" t="n">
-        <v>0.002170182152740327</v>
+        <v>0.001672910308660677</v>
       </c>
       <c r="K3" t="n">
-        <v>0.002058573563939306</v>
+        <v>0.001672910308660677</v>
       </c>
       <c r="L3" t="n">
-        <v>0.001942078234194632</v>
+        <v>0.001672910308660677</v>
       </c>
       <c r="M3" t="n">
-        <v>0.001942078234194632</v>
+        <v>0.001637278453653828</v>
       </c>
       <c r="N3" t="n">
-        <v>0.001877640692208635</v>
+        <v>0.001566499457487587</v>
       </c>
       <c r="O3" t="n">
-        <v>0.001756609446336681</v>
+        <v>0.001566499457487587</v>
       </c>
       <c r="P3" t="n">
-        <v>0.001715321210203148</v>
+        <v>0.001476623050347181</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.001677190155027857</v>
+        <v>0.001476623050347181</v>
       </c>
       <c r="R3" t="n">
-        <v>0.001677190155027857</v>
+        <v>0.00145515452410499</v>
       </c>
       <c r="S3" t="n">
-        <v>0.00163185319085867</v>
+        <v>0.00145515452410499</v>
       </c>
       <c r="T3" t="n">
-        <v>0.00160371113931548</v>
+        <v>0.00145135957306967</v>
       </c>
       <c r="U3" t="n">
-        <v>0.00160371113931548</v>
+        <v>0.001357455762556827</v>
       </c>
       <c r="V3" t="n">
-        <v>0.001595536182378044</v>
+        <v>0.001357455762556827</v>
       </c>
       <c r="W3" t="n">
-        <v>0.001595536182378044</v>
+        <v>0.001339539145054813</v>
       </c>
       <c r="X3" t="n">
-        <v>0.00158716833143148</v>
+        <v>0.001328385329446757</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.001578605944265773</v>
+        <v>0.001314130181354665</v>
       </c>
     </row>
     <row r="4">
@@ -728,73 +728,73 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2090551853179932</v>
+        <v>0.4979994297027588</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>83.72578526828329</v>
+        <v>64.0498300499803</v>
       </c>
       <c r="F4" t="n">
-        <v>0.003690111078309416</v>
+        <v>0.002200436538785911</v>
       </c>
       <c r="G4" t="n">
-        <v>0.002855100436841773</v>
+        <v>0.001906970634048257</v>
       </c>
       <c r="H4" t="n">
-        <v>0.00224717225884831</v>
+        <v>0.001906970634048257</v>
       </c>
       <c r="I4" t="n">
-        <v>0.002085178928853983</v>
+        <v>0.001878189102766445</v>
       </c>
       <c r="J4" t="n">
-        <v>0.002085178928853983</v>
+        <v>0.001811872764294491</v>
       </c>
       <c r="K4" t="n">
-        <v>0.002071198806504619</v>
+        <v>0.001790154379744452</v>
       </c>
       <c r="L4" t="n">
-        <v>0.001988741344736346</v>
+        <v>0.001786794190051133</v>
       </c>
       <c r="M4" t="n">
-        <v>0.00198174053723767</v>
+        <v>0.001653691015456709</v>
       </c>
       <c r="N4" t="n">
-        <v>0.001797604959738166</v>
+        <v>0.001653691015456709</v>
       </c>
       <c r="O4" t="n">
-        <v>0.001797604959738166</v>
+        <v>0.00151359276661117</v>
       </c>
       <c r="P4" t="n">
-        <v>0.001760194688294998</v>
+        <v>0.001484191793877588</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.001760194688294998</v>
+        <v>0.001481585413819286</v>
       </c>
       <c r="R4" t="n">
-        <v>0.001751304172548221</v>
+        <v>0.001464963837664854</v>
       </c>
       <c r="S4" t="n">
-        <v>0.00172841520379968</v>
+        <v>0.001464963837664854</v>
       </c>
       <c r="T4" t="n">
-        <v>0.001692372589404875</v>
+        <v>0.001464963837664854</v>
       </c>
       <c r="U4" t="n">
-        <v>0.001674948440065305</v>
+        <v>0.00140250306585408</v>
       </c>
       <c r="V4" t="n">
-        <v>0.001666155314114643</v>
+        <v>0.001369715229077725</v>
       </c>
       <c r="W4" t="n">
-        <v>0.001660767118110849</v>
+        <v>0.001277600949566976</v>
       </c>
       <c r="X4" t="n">
-        <v>0.001643487343924676</v>
+        <v>0.001277600949566976</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.001632081584177062</v>
+        <v>0.001248534698830025</v>
       </c>
     </row>
     <row r="5">
@@ -807,73 +807,73 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2100899219512939</v>
+        <v>0.4749960899353027</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>80.19955851590021</v>
+        <v>64.8660425643684</v>
       </c>
       <c r="F5" t="n">
-        <v>0.003615637000805763</v>
+        <v>0.002200436538785911</v>
       </c>
       <c r="G5" t="n">
-        <v>0.002853093296369826</v>
+        <v>0.001624035047760429</v>
       </c>
       <c r="H5" t="n">
-        <v>0.002521850818783149</v>
+        <v>0.001624035047760429</v>
       </c>
       <c r="I5" t="n">
-        <v>0.002269587982458932</v>
+        <v>0.001624035047760429</v>
       </c>
       <c r="J5" t="n">
-        <v>0.002216245477540784</v>
+        <v>0.001624035047760429</v>
       </c>
       <c r="K5" t="n">
-        <v>0.002099596092365649</v>
+        <v>0.001624035047760429</v>
       </c>
       <c r="L5" t="n">
-        <v>0.001922077286967498</v>
+        <v>0.001624035047760429</v>
       </c>
       <c r="M5" t="n">
-        <v>0.001854643122036786</v>
+        <v>0.001624035047760429</v>
       </c>
       <c r="N5" t="n">
-        <v>0.001854643122036786</v>
+        <v>0.001534112000041226</v>
       </c>
       <c r="O5" t="n">
-        <v>0.001835043641151794</v>
+        <v>0.001534112000041226</v>
       </c>
       <c r="P5" t="n">
-        <v>0.001795015397663334</v>
+        <v>0.001534112000041226</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.001780761375098593</v>
+        <v>0.001447131481633872</v>
       </c>
       <c r="R5" t="n">
-        <v>0.00171644628158132</v>
+        <v>0.001447131481633872</v>
       </c>
       <c r="S5" t="n">
-        <v>0.00171644628158132</v>
+        <v>0.00135974801716568</v>
       </c>
       <c r="T5" t="n">
-        <v>0.001651285661575623</v>
+        <v>0.001349796083284541</v>
       </c>
       <c r="U5" t="n">
-        <v>0.001639365039344566</v>
+        <v>0.001349796083284541</v>
       </c>
       <c r="V5" t="n">
-        <v>0.001601874947398181</v>
+        <v>0.001349796083284541</v>
       </c>
       <c r="W5" t="n">
-        <v>0.001601874947398181</v>
+        <v>0.001293348454267769</v>
       </c>
       <c r="X5" t="n">
-        <v>0.00156334422058285</v>
+        <v>0.001293348454267769</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.00156334422058285</v>
+        <v>0.001264445274159228</v>
       </c>
     </row>
     <row r="6">
@@ -886,73 +886,73 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2929625511169434</v>
+        <v>0.479008674621582</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>78.12934800561379</v>
+        <v>62.44841208449543</v>
       </c>
       <c r="F6" t="n">
-        <v>0.003465229645800299</v>
+        <v>0.002128667048956864</v>
       </c>
       <c r="G6" t="n">
-        <v>0.002688582320078794</v>
+        <v>0.001956752978130786</v>
       </c>
       <c r="H6" t="n">
-        <v>0.002526911795793723</v>
+        <v>0.001780883019066953</v>
       </c>
       <c r="I6" t="n">
-        <v>0.002301782921082125</v>
+        <v>0.001756214168716552</v>
       </c>
       <c r="J6" t="n">
-        <v>0.002055379795845787</v>
+        <v>0.001570473627546315</v>
       </c>
       <c r="K6" t="n">
-        <v>0.002035526468536691</v>
+        <v>0.001570473627546315</v>
       </c>
       <c r="L6" t="n">
-        <v>0.001913848647427106</v>
+        <v>0.001570473627546315</v>
       </c>
       <c r="M6" t="n">
-        <v>0.001866845221754904</v>
+        <v>0.001570473627546315</v>
       </c>
       <c r="N6" t="n">
-        <v>0.001833916652043055</v>
+        <v>0.001455636820130351</v>
       </c>
       <c r="O6" t="n">
-        <v>0.001787789781182118</v>
+        <v>0.001455636820130351</v>
       </c>
       <c r="P6" t="n">
-        <v>0.001700272239661316</v>
+        <v>0.001455636820130351</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.001669708583043434</v>
+        <v>0.001455636820130351</v>
       </c>
       <c r="R6" t="n">
-        <v>0.001639516460510958</v>
+        <v>0.001382906810097117</v>
       </c>
       <c r="S6" t="n">
-        <v>0.001619000711253376</v>
+        <v>0.001382906810097117</v>
       </c>
       <c r="T6" t="n">
-        <v>0.00155587496782635</v>
+        <v>0.001250094298036282</v>
       </c>
       <c r="U6" t="n">
-        <v>0.00155587496782635</v>
+        <v>0.001250094298036282</v>
       </c>
       <c r="V6" t="n">
-        <v>0.00155587496782635</v>
+        <v>0.001250094298036282</v>
       </c>
       <c r="W6" t="n">
-        <v>0.001544130462705822</v>
+        <v>0.001250094298036282</v>
       </c>
       <c r="X6" t="n">
-        <v>0.00152873006226239</v>
+        <v>0.001240471153620556</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.001522989239875512</v>
+        <v>0.001217317974356636</v>
       </c>
     </row>
     <row r="7">
@@ -965,73 +965,73 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2398521900177002</v>
+        <v>0.4480364322662354</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>79.17031733412296</v>
+        <v>63.93471908705942</v>
       </c>
       <c r="F7" t="n">
-        <v>0.003472056448682002</v>
+        <v>0.002083323006429221</v>
       </c>
       <c r="G7" t="n">
-        <v>0.002883603473870912</v>
+        <v>0.001861054796401135</v>
       </c>
       <c r="H7" t="n">
-        <v>0.002572335527272681</v>
+        <v>0.001861054796401135</v>
       </c>
       <c r="I7" t="n">
-        <v>0.002255143558624631</v>
+        <v>0.001819897513340155</v>
       </c>
       <c r="J7" t="n">
-        <v>0.002144623703995756</v>
+        <v>0.00173151645674204</v>
       </c>
       <c r="K7" t="n">
-        <v>0.00202354122883451</v>
+        <v>0.00173151645674204</v>
       </c>
       <c r="L7" t="n">
-        <v>0.001988364222944019</v>
+        <v>0.001554673078201154</v>
       </c>
       <c r="M7" t="n">
-        <v>0.001906067559509758</v>
+        <v>0.001554673078201154</v>
       </c>
       <c r="N7" t="n">
-        <v>0.001804498751647323</v>
+        <v>0.001554673078201154</v>
       </c>
       <c r="O7" t="n">
-        <v>0.001803689794381137</v>
+        <v>0.001554673078201154</v>
       </c>
       <c r="P7" t="n">
-        <v>0.001639768340158441</v>
+        <v>0.00147869349791234</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.001639768340158441</v>
+        <v>0.00147869349791234</v>
       </c>
       <c r="R7" t="n">
-        <v>0.001639768340158441</v>
+        <v>0.001358312776229196</v>
       </c>
       <c r="S7" t="n">
-        <v>0.001594879727396445</v>
+        <v>0.001358312776229196</v>
       </c>
       <c r="T7" t="n">
-        <v>0.001594879727396445</v>
+        <v>0.001358312776229196</v>
       </c>
       <c r="U7" t="n">
-        <v>0.001594879727396445</v>
+        <v>0.00134575518108175</v>
       </c>
       <c r="V7" t="n">
-        <v>0.001579539492382363</v>
+        <v>0.001314356959203854</v>
       </c>
       <c r="W7" t="n">
-        <v>0.001579539492382363</v>
+        <v>0.00129968634253707</v>
       </c>
       <c r="X7" t="n">
-        <v>0.001563253973213223</v>
+        <v>0.001259159729248232</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.001543281039651519</v>
+        <v>0.001246290820410515</v>
       </c>
     </row>
     <row r="8">
@@ -1044,73 +1044,73 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2140746116638184</v>
+        <v>0.8669610023498535</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>78.07068384169361</v>
+        <v>66.29549042661893</v>
       </c>
       <c r="F8" t="n">
-        <v>0.003759083144121613</v>
+        <v>0.002090109990741752</v>
       </c>
       <c r="G8" t="n">
-        <v>0.002932206378861229</v>
+        <v>0.001887526077161699</v>
       </c>
       <c r="H8" t="n">
-        <v>0.002627136054231766</v>
+        <v>0.001845462964590224</v>
       </c>
       <c r="I8" t="n">
-        <v>0.002325355616545497</v>
+        <v>0.001790598981263856</v>
       </c>
       <c r="J8" t="n">
-        <v>0.00215020524883308</v>
+        <v>0.001790598981263856</v>
       </c>
       <c r="K8" t="n">
-        <v>0.00215020524883308</v>
+        <v>0.001617424259157029</v>
       </c>
       <c r="L8" t="n">
-        <v>0.00215020524883308</v>
+        <v>0.001617424259157029</v>
       </c>
       <c r="M8" t="n">
-        <v>0.001959133325351119</v>
+        <v>0.001560051449261245</v>
       </c>
       <c r="N8" t="n">
-        <v>0.001959133325351119</v>
+        <v>0.001560051449261245</v>
       </c>
       <c r="O8" t="n">
-        <v>0.001695004734906318</v>
+        <v>0.001394859472989641</v>
       </c>
       <c r="P8" t="n">
-        <v>0.001695004734906318</v>
+        <v>0.001394859472989641</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.001695004734906318</v>
+        <v>0.001394859472989641</v>
       </c>
       <c r="R8" t="n">
-        <v>0.001695004734906318</v>
+        <v>0.001394859472989641</v>
       </c>
       <c r="S8" t="n">
-        <v>0.001640810079011272</v>
+        <v>0.001394859472989641</v>
       </c>
       <c r="T8" t="n">
-        <v>0.001614952861858144</v>
+        <v>0.001381592628275572</v>
       </c>
       <c r="U8" t="n">
-        <v>0.00158010873233204</v>
+        <v>0.001381592628275572</v>
       </c>
       <c r="V8" t="n">
-        <v>0.001576051803209413</v>
+        <v>0.001354964783069172</v>
       </c>
       <c r="W8" t="n">
-        <v>0.001553221364669915</v>
+        <v>0.001348880453541368</v>
       </c>
       <c r="X8" t="n">
-        <v>0.001529121290141527</v>
+        <v>0.001325744764843242</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.001521845688921902</v>
+        <v>0.001292309754904852</v>
       </c>
     </row>
     <row r="9">
@@ -1123,73 +1123,73 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>0.21875</v>
+        <v>0.5470013618469238</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>78.18120103215006</v>
+        <v>64.1362535840417</v>
       </c>
       <c r="F9" t="n">
-        <v>0.003744740124062058</v>
+        <v>0.002200436538785911</v>
       </c>
       <c r="G9" t="n">
-        <v>0.002840132546236567</v>
+        <v>0.001837855437458066</v>
       </c>
       <c r="H9" t="n">
-        <v>0.002204310088156319</v>
+        <v>0.001744083847164834</v>
       </c>
       <c r="I9" t="n">
-        <v>0.002204310088156319</v>
+        <v>0.001744083847164834</v>
       </c>
       <c r="J9" t="n">
-        <v>0.002153565057913645</v>
+        <v>0.001605822255938871</v>
       </c>
       <c r="K9" t="n">
-        <v>0.002100089748053694</v>
+        <v>0.001605822255938871</v>
       </c>
       <c r="L9" t="n">
-        <v>0.001952877674862464</v>
+        <v>0.001590036920401987</v>
       </c>
       <c r="M9" t="n">
-        <v>0.001881658004841957</v>
+        <v>0.001590036920401987</v>
       </c>
       <c r="N9" t="n">
-        <v>0.001822866030628819</v>
+        <v>0.001557637483095208</v>
       </c>
       <c r="O9" t="n">
-        <v>0.001739706247139089</v>
+        <v>0.001557637483095208</v>
       </c>
       <c r="P9" t="n">
-        <v>0.001711576716126026</v>
+        <v>0.001557637483095208</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.001711576716126026</v>
+        <v>0.001438178020783093</v>
       </c>
       <c r="R9" t="n">
-        <v>0.001614114164554356</v>
+        <v>0.001433525836672659</v>
       </c>
       <c r="S9" t="n">
-        <v>0.001571998599521291</v>
+        <v>0.001394189414677172</v>
       </c>
       <c r="T9" t="n">
-        <v>0.001571998599521291</v>
+        <v>0.001394189414677172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.001571998599521291</v>
+        <v>0.001374897254811134</v>
       </c>
       <c r="V9" t="n">
-        <v>0.001566797505886064</v>
+        <v>0.001347483394345201</v>
       </c>
       <c r="W9" t="n">
-        <v>0.001544111956601399</v>
+        <v>0.001305683340708224</v>
       </c>
       <c r="X9" t="n">
-        <v>0.001543437248945206</v>
+        <v>0.001256866154740494</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.001524000020119884</v>
+        <v>0.001250219368109974</v>
       </c>
     </row>
     <row r="10">
@@ -1202,73 +1202,73 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2479193210601807</v>
+        <v>0.6820008754730225</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>77.48451050783478</v>
+        <v>67.10632048071784</v>
       </c>
       <c r="F10" t="n">
-        <v>0.003632288010573821</v>
+        <v>0.001966018487533238</v>
       </c>
       <c r="G10" t="n">
-        <v>0.002961008011339377</v>
+        <v>0.001937019300936586</v>
       </c>
       <c r="H10" t="n">
-        <v>0.002350267019669826</v>
+        <v>0.001846282152210586</v>
       </c>
       <c r="I10" t="n">
-        <v>0.002236595090739905</v>
+        <v>0.001846282152210586</v>
       </c>
       <c r="J10" t="n">
-        <v>0.002236595090739905</v>
+        <v>0.001846282152210586</v>
       </c>
       <c r="K10" t="n">
-        <v>0.002099354709725124</v>
+        <v>0.001779646611438981</v>
       </c>
       <c r="L10" t="n">
-        <v>0.002074970565844901</v>
+        <v>0.001601695395008088</v>
       </c>
       <c r="M10" t="n">
-        <v>0.001956009252144088</v>
+        <v>0.001601695395008088</v>
       </c>
       <c r="N10" t="n">
-        <v>0.00193864126303156</v>
+        <v>0.00154636388590751</v>
       </c>
       <c r="O10" t="n">
-        <v>0.001866146243428765</v>
+        <v>0.00154636388590751</v>
       </c>
       <c r="P10" t="n">
-        <v>0.001866014576791702</v>
+        <v>0.00154636388590751</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.001753418581980337</v>
+        <v>0.00154636388590751</v>
       </c>
       <c r="R10" t="n">
-        <v>0.001753418581980337</v>
+        <v>0.001531325767325123</v>
       </c>
       <c r="S10" t="n">
-        <v>0.001664772966093212</v>
+        <v>0.001528657121966105</v>
       </c>
       <c r="T10" t="n">
-        <v>0.001664772966093212</v>
+        <v>0.001501542701289172</v>
       </c>
       <c r="U10" t="n">
-        <v>0.001644558724383529</v>
+        <v>0.001367730075974987</v>
       </c>
       <c r="V10" t="n">
-        <v>0.001596862942359768</v>
+        <v>0.001367730075974987</v>
       </c>
       <c r="W10" t="n">
-        <v>0.001544399564283477</v>
+        <v>0.001308115408980854</v>
       </c>
       <c r="X10" t="n">
-        <v>0.001512533860548866</v>
+        <v>0.001308115408980854</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.001510419308144927</v>
+        <v>0.001308115408980854</v>
       </c>
     </row>
     <row r="11">
@@ -1281,73 +1281,73 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2136814594268799</v>
+        <v>0.9950058460235596</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>80.77882561079605</v>
+        <v>65.72871479378773</v>
       </c>
       <c r="F11" t="n">
-        <v>0.003731177597385016</v>
+        <v>0.002200436538785911</v>
       </c>
       <c r="G11" t="n">
-        <v>0.002816787661299438</v>
+        <v>0.001930433371228211</v>
       </c>
       <c r="H11" t="n">
-        <v>0.002579384315105313</v>
+        <v>0.001689530768166271</v>
       </c>
       <c r="I11" t="n">
-        <v>0.002227024119271595</v>
+        <v>0.001689530768166271</v>
       </c>
       <c r="J11" t="n">
-        <v>0.002227024119271595</v>
+        <v>0.001476023078952277</v>
       </c>
       <c r="K11" t="n">
-        <v>0.002112213722177354</v>
+        <v>0.001476023078952277</v>
       </c>
       <c r="L11" t="n">
-        <v>0.001910928604241963</v>
+        <v>0.001476023078952277</v>
       </c>
       <c r="M11" t="n">
-        <v>0.001910928604241963</v>
+        <v>0.001476023078952277</v>
       </c>
       <c r="N11" t="n">
-        <v>0.001910928604241963</v>
+        <v>0.001476023078952277</v>
       </c>
       <c r="O11" t="n">
-        <v>0.001744282461701575</v>
+        <v>0.001476023078952277</v>
       </c>
       <c r="P11" t="n">
-        <v>0.001688253714728241</v>
+        <v>0.001476023078952277</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.00166318533139617</v>
+        <v>0.001466575737196787</v>
       </c>
       <c r="R11" t="n">
-        <v>0.00166318533139617</v>
+        <v>0.00138487360516039</v>
       </c>
       <c r="S11" t="n">
-        <v>0.001620413131806298</v>
+        <v>0.00138487360516039</v>
       </c>
       <c r="T11" t="n">
-        <v>0.001620413131806298</v>
+        <v>0.00138487360516039</v>
       </c>
       <c r="U11" t="n">
-        <v>0.001620413131806298</v>
+        <v>0.001329246993103893</v>
       </c>
       <c r="V11" t="n">
-        <v>0.00160969673835961</v>
+        <v>0.001329246993103893</v>
       </c>
       <c r="W11" t="n">
-        <v>0.001599020981138466</v>
+        <v>0.001329246993103893</v>
       </c>
       <c r="X11" t="n">
-        <v>0.001599020981138466</v>
+        <v>0.001294653999767357</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.001574635976818636</v>
+        <v>0.001281261496954926</v>
       </c>
     </row>
   </sheetData>
